--- a/index/data/ModelResults.xlsx
+++ b/index/data/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\Capstone_Writing\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A91C0-1176-4762-A8D3-B57BBAE92577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA6D12-8588-4692-888A-ECAFC9D3134D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="-15060" windowWidth="17280" windowHeight="8970" xr2:uid="{73C4EFDC-D6DA-4202-AEF1-B809E5528D5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73C4EFDC-D6DA-4202-AEF1-B809E5528D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,9 @@
       <c r="J4" s="3">
         <v>55311.64</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>88097</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
